--- a/AUS/WRC_13.xlsx
+++ b/AUS/WRC_13.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="65">
   <si>
     <t xml:space="preserve">STP reporting ABN: 53652561503</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t xml:space="preserve">D70DAF0E-50DD-46FB-A926-8EAD7FB1F660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
   </si>
 </sst>
 </file>
@@ -532,7 +529,7 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1956,10 +1953,6 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="0"/>
       <c r="E57" s="6" t="n">
         <f aca="false">SUM(E4:E56)</f>
         <v>185777.66</v>

--- a/AUS/WRC_13.xlsx
+++ b/AUS/WRC_13.xlsx
@@ -227,7 +227,7 @@
     <numFmt numFmtId="166" formatCode="\$#,##0.00;[RED]&quot;-$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,14 +250,6 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,19 +259,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -308,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,10 +315,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -526,10 +507,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F59" activeCellId="0" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1952,16 +1933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="6" t="n">
-        <f aca="false">SUM(E4:E56)</f>
-        <v>185777.66</v>
-      </c>
-      <c r="F57" s="6" t="n">
-        <f aca="false">SUM(F4:F56)</f>
-        <v>43230</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
